--- a/Napping/Exam/16 beers.xlsx
+++ b/Napping/Exam/16 beers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/jgivsk20_student_aau_dk/Documents/7. semester/SemProj/Project7-Data-Analysis/Napping/Exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{BA7C6730-DD30-E34E-8262-4A3E40655CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A44B1EA6-72E4-AC42-BF3A-9BA2E4243007}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{BA7C6730-DD30-E34E-8262-4A3E40655CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C94DC86-69F4-8E44-B5C3-38B53BBB9D90}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Merge" sheetId="2" r:id="rId1"/>
@@ -835,7 +835,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1191,11 +1191,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="392">
+  <cellXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2369,6 +2504,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2385,6 +2547,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7824,881 +7990,901 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F7D6F9-80C9-E241-9778-1D82CD10E91F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="17" width="10.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
-      <c r="A1" s="383" t="s">
+      <c r="A1" s="393" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="384" t="s">
+      <c r="B1" s="394" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="385" t="s">
+      <c r="C1" s="394" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="385" t="s">
+      <c r="D1" s="394" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="386" t="s">
+      <c r="E1" s="394" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="387" t="s">
+      <c r="F1" s="394" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="385" t="s">
+      <c r="G1" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="385" t="s">
+      <c r="H1" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="386" t="s">
+      <c r="I1" s="394" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="387" t="s">
+      <c r="J1" s="394" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="386" t="s">
+      <c r="K1" s="394" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="387" t="s">
+      <c r="L1" s="394" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="385" t="s">
+      <c r="M1" s="394" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="385" t="s">
+      <c r="N1" s="394" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="385" t="s">
+      <c r="O1" s="394" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="385" t="s">
+      <c r="P1" s="394" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="388" t="s">
+      <c r="Q1" s="395" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="389" t="s">
+      <c r="A2" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="383">
-        <v>0</v>
-      </c>
-      <c r="C2" s="383">
+      <c r="B2" s="392">
+        <v>0</v>
+      </c>
+      <c r="C2" s="392">
         <v>25.565000000000001</v>
       </c>
-      <c r="D2" s="383">
+      <c r="D2" s="392">
         <v>20.29</v>
       </c>
-      <c r="E2" s="383">
+      <c r="E2" s="392">
         <v>18.3</v>
       </c>
-      <c r="F2" s="383">
+      <c r="F2" s="392">
         <v>19.57</v>
       </c>
-      <c r="G2" s="383">
+      <c r="G2" s="392">
         <v>22.954999999999998</v>
       </c>
-      <c r="H2" s="383">
+      <c r="H2" s="392">
         <v>25.03</v>
       </c>
-      <c r="I2" s="383">
+      <c r="I2" s="392">
         <v>25.65</v>
       </c>
-      <c r="J2" s="383">
+      <c r="J2" s="392">
         <v>29.24</v>
       </c>
-      <c r="K2" s="383">
+      <c r="K2" s="392">
         <v>36.520000000000003</v>
       </c>
-      <c r="L2" s="383">
+      <c r="L2" s="392">
         <v>32.799999999999997</v>
       </c>
-      <c r="M2" s="383">
+      <c r="M2" s="392">
         <v>23.01</v>
       </c>
-      <c r="N2" s="383">
+      <c r="N2" s="392">
         <v>29.215</v>
       </c>
-      <c r="O2" s="383">
+      <c r="O2" s="392">
         <v>31.995000000000001</v>
       </c>
-      <c r="P2" s="383">
+      <c r="P2" s="392">
         <v>31.565000000000001</v>
       </c>
-      <c r="Q2" s="383">
+      <c r="Q2" s="397">
         <v>21.64</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="390" t="s">
+      <c r="A3" s="396" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="383">
+      <c r="B3" s="392">
         <v>25.565000000000001</v>
       </c>
-      <c r="C3" s="383">
-        <v>0</v>
-      </c>
-      <c r="D3" s="383">
+      <c r="C3" s="392">
+        <v>0</v>
+      </c>
+      <c r="D3" s="392">
         <v>23.85</v>
       </c>
-      <c r="E3" s="383">
+      <c r="E3" s="392">
         <v>25.77</v>
       </c>
-      <c r="F3" s="383">
+      <c r="F3" s="392">
         <v>26.11</v>
       </c>
-      <c r="G3" s="383">
+      <c r="G3" s="392">
         <v>13.234999999999999</v>
       </c>
-      <c r="H3" s="383">
+      <c r="H3" s="392">
         <v>20.88</v>
       </c>
-      <c r="I3" s="383">
+      <c r="I3" s="392">
         <v>21.545000000000002</v>
       </c>
-      <c r="J3" s="383">
+      <c r="J3" s="392">
         <v>28.92</v>
       </c>
-      <c r="K3" s="383">
+      <c r="K3" s="392">
         <v>22.53</v>
       </c>
-      <c r="L3" s="383">
+      <c r="L3" s="392">
         <v>28.17</v>
       </c>
-      <c r="M3" s="383">
+      <c r="M3" s="392">
         <v>23.66</v>
       </c>
-      <c r="N3" s="383">
+      <c r="N3" s="392">
         <v>17.195</v>
       </c>
-      <c r="O3" s="383">
+      <c r="O3" s="392">
         <v>21.92</v>
       </c>
-      <c r="P3" s="383">
+      <c r="P3" s="392">
         <v>32.229999999999997</v>
       </c>
-      <c r="Q3" s="383">
+      <c r="Q3" s="397">
         <v>31.45</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="390" t="s">
+      <c r="A4" s="396" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="383">
+      <c r="B4" s="392">
         <v>20.29</v>
       </c>
-      <c r="C4" s="383">
+      <c r="C4" s="392">
         <v>23.85</v>
       </c>
-      <c r="D4" s="383">
-        <v>0</v>
-      </c>
-      <c r="E4" s="383">
+      <c r="D4" s="392">
+        <v>0</v>
+      </c>
+      <c r="E4" s="392">
         <v>12.66</v>
       </c>
-      <c r="F4" s="383"/>
-      <c r="G4" s="383">
+      <c r="F4" s="392"/>
+      <c r="G4" s="392">
         <v>29.42</v>
       </c>
-      <c r="H4" s="383">
+      <c r="H4" s="392">
         <v>8.5399999999999991</v>
       </c>
-      <c r="I4" s="383">
+      <c r="I4" s="392">
         <v>28.84</v>
       </c>
-      <c r="J4" s="383"/>
-      <c r="K4" s="383">
+      <c r="J4" s="392"/>
+      <c r="K4" s="392">
         <v>31.45</v>
       </c>
-      <c r="L4" s="383"/>
-      <c r="M4" s="383">
+      <c r="L4" s="392"/>
+      <c r="M4" s="392">
         <v>23.1</v>
       </c>
-      <c r="N4" s="383">
+      <c r="N4" s="392">
         <v>23.87</v>
       </c>
-      <c r="O4" s="383">
+      <c r="O4" s="392">
         <v>23.99</v>
       </c>
-      <c r="P4" s="383">
+      <c r="P4" s="392">
         <v>22.4</v>
       </c>
-      <c r="Q4" s="383">
+      <c r="Q4" s="397">
         <v>25.68</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="390" t="s">
+      <c r="A5" s="396" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="383">
+      <c r="B5" s="392">
         <v>18.3</v>
       </c>
-      <c r="C5" s="383">
+      <c r="C5" s="392">
         <v>25.77</v>
       </c>
-      <c r="D5" s="383">
+      <c r="D5" s="392">
         <v>12.66</v>
       </c>
-      <c r="E5" s="383">
-        <v>0</v>
-      </c>
-      <c r="F5" s="383">
+      <c r="E5" s="392">
+        <v>0</v>
+      </c>
+      <c r="F5" s="392">
         <v>16.100000000000001</v>
       </c>
-      <c r="G5" s="383">
+      <c r="G5" s="392">
         <v>21.215</v>
       </c>
-      <c r="H5" s="383">
+      <c r="H5" s="392">
         <v>19.46</v>
       </c>
-      <c r="I5" s="383">
+      <c r="I5" s="392">
         <v>24.47</v>
       </c>
-      <c r="J5" s="383">
+      <c r="J5" s="392">
         <v>18.75</v>
       </c>
-      <c r="K5" s="383">
+      <c r="K5" s="392">
         <v>35.96</v>
       </c>
-      <c r="L5" s="383">
+      <c r="L5" s="392">
         <v>29.68</v>
       </c>
-      <c r="M5" s="383">
+      <c r="M5" s="392">
         <v>22.66</v>
       </c>
-      <c r="N5" s="383">
+      <c r="N5" s="392">
         <v>23.614999999999998</v>
       </c>
-      <c r="O5" s="383">
+      <c r="O5" s="392">
         <v>26.42</v>
       </c>
-      <c r="P5" s="383">
+      <c r="P5" s="392">
         <v>27.69</v>
       </c>
-      <c r="Q5" s="383">
+      <c r="Q5" s="397">
         <v>22.54</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="390" t="s">
+      <c r="A6" s="396" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="383">
+      <c r="B6" s="392">
         <v>19.57</v>
       </c>
-      <c r="C6" s="383">
+      <c r="C6" s="392">
         <v>26.11</v>
       </c>
-      <c r="D6" s="383"/>
-      <c r="E6" s="383">
+      <c r="D6" s="392"/>
+      <c r="E6" s="392">
         <v>16.100000000000001</v>
       </c>
-      <c r="F6" s="383">
-        <v>0</v>
-      </c>
-      <c r="G6" s="383">
+      <c r="F6" s="392">
+        <v>0</v>
+      </c>
+      <c r="G6" s="392">
         <v>17.66</v>
       </c>
-      <c r="H6" s="383"/>
-      <c r="I6" s="383">
+      <c r="H6" s="392"/>
+      <c r="I6" s="392">
         <v>22.37</v>
       </c>
-      <c r="J6" s="383">
+      <c r="J6" s="392">
         <v>28.22</v>
       </c>
-      <c r="K6" s="383"/>
-      <c r="L6" s="383">
+      <c r="K6" s="392"/>
+      <c r="L6" s="392">
         <v>21.53</v>
       </c>
-      <c r="M6" s="383">
+      <c r="M6" s="392">
         <v>19.78</v>
       </c>
-      <c r="N6" s="383">
+      <c r="N6" s="392">
         <v>27.86</v>
       </c>
-      <c r="O6" s="383">
+      <c r="O6" s="392">
         <v>25.33</v>
       </c>
-      <c r="P6" s="383">
+      <c r="P6" s="392">
         <v>36.72</v>
       </c>
-      <c r="Q6" s="383">
+      <c r="Q6" s="397">
         <v>34.9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="390" t="s">
+      <c r="A7" s="396" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="383">
+      <c r="B7" s="392">
         <v>22.954999999999998</v>
       </c>
-      <c r="C7" s="383">
+      <c r="C7" s="392">
         <v>13.234999999999999</v>
       </c>
-      <c r="D7" s="383">
+      <c r="D7" s="392">
         <v>29.42</v>
       </c>
-      <c r="E7" s="383">
+      <c r="E7" s="392">
         <v>21.215</v>
       </c>
-      <c r="F7" s="383">
+      <c r="F7" s="392">
         <v>17.66</v>
       </c>
-      <c r="G7" s="383">
-        <v>0</v>
-      </c>
-      <c r="H7" s="383">
+      <c r="G7" s="392">
+        <v>0</v>
+      </c>
+      <c r="H7" s="392">
         <v>24.04</v>
       </c>
-      <c r="I7" s="383">
+      <c r="I7" s="392">
         <v>15.96</v>
       </c>
-      <c r="J7" s="383">
+      <c r="J7" s="392">
         <v>22.14</v>
       </c>
-      <c r="K7" s="383">
+      <c r="K7" s="392">
         <v>15.9</v>
       </c>
-      <c r="L7" s="383">
+      <c r="L7" s="392">
         <v>24.6</v>
       </c>
-      <c r="M7" s="383">
+      <c r="M7" s="392">
         <v>21.565000000000001</v>
       </c>
-      <c r="N7" s="383">
+      <c r="N7" s="392">
         <v>15.135</v>
       </c>
-      <c r="O7" s="383">
+      <c r="O7" s="392">
         <v>17.21</v>
       </c>
-      <c r="P7" s="383">
+      <c r="P7" s="392">
         <v>24.88</v>
       </c>
-      <c r="Q7" s="383">
+      <c r="Q7" s="397">
         <v>31.155000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="390" t="s">
+      <c r="A8" s="396" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="383">
+      <c r="B8" s="392">
         <v>25.03</v>
       </c>
-      <c r="C8" s="383">
+      <c r="C8" s="392">
         <v>20.88</v>
       </c>
-      <c r="D8" s="383">
+      <c r="D8" s="392">
         <v>8.5399999999999991</v>
       </c>
-      <c r="E8" s="383">
+      <c r="E8" s="392">
         <v>19.46</v>
       </c>
-      <c r="F8" s="383"/>
-      <c r="G8" s="383">
+      <c r="F8" s="392"/>
+      <c r="G8" s="392">
         <v>24.04</v>
       </c>
-      <c r="H8" s="383">
-        <v>0</v>
-      </c>
-      <c r="I8" s="383">
+      <c r="H8" s="392">
+        <v>0</v>
+      </c>
+      <c r="I8" s="392">
         <v>24.5</v>
       </c>
-      <c r="J8" s="383"/>
-      <c r="K8" s="383">
+      <c r="J8" s="392"/>
+      <c r="K8" s="392">
         <v>24.44</v>
       </c>
-      <c r="L8" s="383"/>
-      <c r="M8" s="383">
+      <c r="L8" s="392"/>
+      <c r="M8" s="392">
         <v>24.79</v>
       </c>
-      <c r="N8" s="383">
+      <c r="N8" s="392">
         <v>18.77</v>
       </c>
-      <c r="O8" s="383">
+      <c r="O8" s="392">
         <v>16.34</v>
       </c>
-      <c r="P8" s="383">
+      <c r="P8" s="392">
         <v>16.68</v>
       </c>
-      <c r="Q8" s="383">
+      <c r="Q8" s="397">
         <v>32.770000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="390" t="s">
+      <c r="A9" s="396" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="383">
+      <c r="B9" s="392">
         <v>25.65</v>
       </c>
-      <c r="C9" s="383">
+      <c r="C9" s="392">
         <v>21.545000000000002</v>
       </c>
-      <c r="D9" s="383">
+      <c r="D9" s="392">
         <v>28.84</v>
       </c>
-      <c r="E9" s="383">
+      <c r="E9" s="392">
         <v>24.47</v>
       </c>
-      <c r="F9" s="383">
+      <c r="F9" s="392">
         <v>22.37</v>
       </c>
-      <c r="G9" s="383">
+      <c r="G9" s="392">
         <v>15.96</v>
       </c>
-      <c r="H9" s="383">
+      <c r="H9" s="392">
         <v>24.5</v>
       </c>
-      <c r="I9" s="383">
-        <v>0</v>
-      </c>
-      <c r="J9" s="383">
+      <c r="I9" s="392">
+        <v>0</v>
+      </c>
+      <c r="J9" s="392">
         <v>10.99</v>
       </c>
-      <c r="K9" s="383">
+      <c r="K9" s="392">
         <v>15.12</v>
       </c>
-      <c r="L9" s="383">
+      <c r="L9" s="392">
         <v>18.059999999999999</v>
       </c>
-      <c r="M9" s="383">
+      <c r="M9" s="392">
         <v>26.385000000000002</v>
       </c>
-      <c r="N9" s="383">
+      <c r="N9" s="392">
         <v>12.515000000000001</v>
       </c>
-      <c r="O9" s="383">
+      <c r="O9" s="392">
         <v>23.34</v>
       </c>
-      <c r="P9" s="383">
+      <c r="P9" s="392">
         <v>23.37</v>
       </c>
-      <c r="Q9" s="383">
+      <c r="Q9" s="397">
         <v>34.895000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="390" t="s">
+      <c r="A10" s="396" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="383">
+      <c r="B10" s="392">
         <v>29.24</v>
       </c>
-      <c r="C10" s="383">
+      <c r="C10" s="392">
         <v>28.92</v>
       </c>
-      <c r="D10" s="383"/>
-      <c r="E10" s="383">
+      <c r="D10" s="392"/>
+      <c r="E10" s="392">
         <v>18.75</v>
       </c>
-      <c r="F10" s="383">
+      <c r="F10" s="392">
         <v>28.22</v>
       </c>
-      <c r="G10" s="383">
+      <c r="G10" s="392">
         <v>22.14</v>
       </c>
-      <c r="H10" s="383"/>
-      <c r="I10" s="383">
+      <c r="H10" s="392"/>
+      <c r="I10" s="392">
         <v>10.99</v>
       </c>
-      <c r="J10" s="383">
-        <v>0</v>
-      </c>
-      <c r="K10" s="383"/>
-      <c r="L10" s="383">
+      <c r="J10" s="392">
+        <v>0</v>
+      </c>
+      <c r="K10" s="392"/>
+      <c r="L10" s="392">
         <v>25.74</v>
       </c>
-      <c r="M10" s="383">
+      <c r="M10" s="392">
         <v>18.760000000000002</v>
       </c>
-      <c r="N10" s="383">
+      <c r="N10" s="392">
         <v>12.52</v>
       </c>
-      <c r="O10" s="383">
+      <c r="O10" s="392">
         <v>16.190000000000001</v>
       </c>
-      <c r="P10" s="383">
+      <c r="P10" s="392">
         <v>16.309999999999999</v>
       </c>
-      <c r="Q10" s="383">
+      <c r="Q10" s="397">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="390" t="s">
+      <c r="A11" s="396" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="383">
+      <c r="B11" s="392">
         <v>36.520000000000003</v>
       </c>
-      <c r="C11" s="383">
+      <c r="C11" s="392">
         <v>22.53</v>
       </c>
-      <c r="D11" s="383">
+      <c r="D11" s="392">
         <v>31.45</v>
       </c>
-      <c r="E11" s="383">
+      <c r="E11" s="392">
         <v>35.96</v>
       </c>
-      <c r="F11" s="383"/>
-      <c r="G11" s="383">
+      <c r="F11" s="392"/>
+      <c r="G11" s="392">
         <v>15.9</v>
       </c>
-      <c r="H11" s="383">
+      <c r="H11" s="392">
         <v>24.44</v>
       </c>
-      <c r="I11" s="383">
+      <c r="I11" s="392">
         <v>15.12</v>
       </c>
-      <c r="J11" s="383"/>
-      <c r="K11" s="383">
-        <v>0</v>
-      </c>
-      <c r="L11" s="383"/>
-      <c r="M11" s="383">
+      <c r="J11" s="392"/>
+      <c r="K11" s="392">
+        <v>0</v>
+      </c>
+      <c r="L11" s="392"/>
+      <c r="M11" s="392">
         <v>29.69</v>
       </c>
-      <c r="N11" s="383">
+      <c r="N11" s="392">
         <v>19</v>
       </c>
-      <c r="O11" s="383">
+      <c r="O11" s="392">
         <v>15.46</v>
       </c>
-      <c r="P11" s="383">
+      <c r="P11" s="392">
         <v>17.78</v>
       </c>
-      <c r="Q11" s="383">
+      <c r="Q11" s="397">
         <v>45.7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="390" t="s">
+      <c r="A12" s="396" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="383">
+      <c r="B12" s="392">
         <v>32.799999999999997</v>
       </c>
-      <c r="C12" s="383">
+      <c r="C12" s="392">
         <v>28.17</v>
       </c>
-      <c r="D12" s="383"/>
-      <c r="E12" s="383">
+      <c r="D12" s="392"/>
+      <c r="E12" s="392">
         <v>29.68</v>
       </c>
-      <c r="F12" s="383">
+      <c r="F12" s="392">
         <v>21.53</v>
       </c>
-      <c r="G12" s="383">
+      <c r="G12" s="392">
         <v>24.6</v>
       </c>
-      <c r="H12" s="383"/>
-      <c r="I12" s="383">
+      <c r="H12" s="392"/>
+      <c r="I12" s="392">
         <v>18.059999999999999</v>
       </c>
-      <c r="J12" s="383">
+      <c r="J12" s="392">
         <v>25.74</v>
       </c>
-      <c r="K12" s="383"/>
-      <c r="L12" s="383">
-        <v>0</v>
-      </c>
-      <c r="M12" s="383">
+      <c r="K12" s="392"/>
+      <c r="L12" s="392">
+        <v>0</v>
+      </c>
+      <c r="M12" s="392">
         <v>24.37</v>
       </c>
-      <c r="N12" s="383">
+      <c r="N12" s="392">
         <v>31.03</v>
       </c>
-      <c r="O12" s="383">
+      <c r="O12" s="392">
         <v>32.4</v>
       </c>
-      <c r="P12" s="383">
+      <c r="P12" s="392">
         <v>35.49</v>
       </c>
-      <c r="Q12" s="383">
+      <c r="Q12" s="397">
         <v>33.299999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="390" t="s">
+      <c r="A13" s="396" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="383">
+      <c r="B13" s="392">
         <v>23.01</v>
       </c>
-      <c r="C13" s="383">
+      <c r="C13" s="392">
         <v>23.66</v>
       </c>
-      <c r="D13" s="383">
+      <c r="D13" s="392">
         <v>23.1</v>
       </c>
-      <c r="E13" s="383">
+      <c r="E13" s="392">
         <v>22.66</v>
       </c>
-      <c r="F13" s="383">
+      <c r="F13" s="392">
         <v>19.78</v>
       </c>
-      <c r="G13" s="383">
+      <c r="G13" s="392">
         <v>21.565000000000001</v>
       </c>
-      <c r="H13" s="383">
+      <c r="H13" s="392">
         <v>24.79</v>
       </c>
-      <c r="I13" s="383">
+      <c r="I13" s="392">
         <v>26.385000000000002</v>
       </c>
-      <c r="J13" s="383">
+      <c r="J13" s="392">
         <v>18.760000000000002</v>
       </c>
-      <c r="K13" s="383">
+      <c r="K13" s="392">
         <v>29.69</v>
       </c>
-      <c r="L13" s="383">
+      <c r="L13" s="392">
         <v>24.37</v>
       </c>
-      <c r="M13" s="383">
-        <v>0</v>
-      </c>
-      <c r="N13" s="383">
+      <c r="M13" s="392">
+        <v>0</v>
+      </c>
+      <c r="N13" s="392">
         <v>28.785</v>
       </c>
-      <c r="O13" s="383">
+      <c r="O13" s="392">
         <v>21.835000000000001</v>
       </c>
-      <c r="P13" s="383">
+      <c r="P13" s="392">
         <v>23.56</v>
       </c>
-      <c r="Q13" s="383">
+      <c r="Q13" s="397">
         <v>20.885000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="390" t="s">
+      <c r="A14" s="396" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="383">
+      <c r="B14" s="392">
         <v>29.215</v>
       </c>
-      <c r="C14" s="383">
+      <c r="C14" s="392">
         <v>17.195</v>
       </c>
-      <c r="D14" s="383">
+      <c r="D14" s="392">
         <v>23.87</v>
       </c>
-      <c r="E14" s="383">
+      <c r="E14" s="392">
         <v>23.614999999999998</v>
       </c>
-      <c r="F14" s="383">
+      <c r="F14" s="392">
         <v>27.86</v>
       </c>
-      <c r="G14" s="383">
+      <c r="G14" s="392">
         <v>15.135</v>
       </c>
-      <c r="H14" s="383">
+      <c r="H14" s="392">
         <v>18.77</v>
       </c>
-      <c r="I14" s="383">
+      <c r="I14" s="392">
         <v>12.515000000000001</v>
       </c>
-      <c r="J14" s="383">
+      <c r="J14" s="392">
         <v>12.52</v>
       </c>
-      <c r="K14" s="383">
+      <c r="K14" s="392">
         <v>19</v>
       </c>
-      <c r="L14" s="383">
+      <c r="L14" s="392">
         <v>31.03</v>
       </c>
-      <c r="M14" s="383">
+      <c r="M14" s="392">
         <v>28.785</v>
       </c>
-      <c r="N14" s="383">
-        <v>0</v>
-      </c>
-      <c r="O14" s="383">
+      <c r="N14" s="392">
+        <v>0</v>
+      </c>
+      <c r="O14" s="392">
         <v>16.98</v>
       </c>
-      <c r="P14" s="383">
+      <c r="P14" s="392">
         <v>24.13</v>
       </c>
-      <c r="Q14" s="383">
+      <c r="Q14" s="397">
         <v>35.57</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="390" t="s">
+      <c r="A15" s="396" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="383">
+      <c r="B15" s="392">
         <v>31.995000000000001</v>
       </c>
-      <c r="C15" s="383">
+      <c r="C15" s="392">
         <v>21.92</v>
       </c>
-      <c r="D15" s="383">
+      <c r="D15" s="392">
         <v>23.99</v>
       </c>
-      <c r="E15" s="383">
+      <c r="E15" s="392">
         <v>26.42</v>
       </c>
-      <c r="F15" s="383">
+      <c r="F15" s="392">
         <v>25.33</v>
       </c>
-      <c r="G15" s="383">
+      <c r="G15" s="392">
         <v>17.21</v>
       </c>
-      <c r="H15" s="383">
+      <c r="H15" s="392">
         <v>16.34</v>
       </c>
-      <c r="I15" s="383">
+      <c r="I15" s="392">
         <v>23.34</v>
       </c>
-      <c r="J15" s="383">
+      <c r="J15" s="392">
         <v>16.190000000000001</v>
       </c>
-      <c r="K15" s="383">
+      <c r="K15" s="392">
         <v>15.46</v>
       </c>
-      <c r="L15" s="383">
+      <c r="L15" s="392">
         <v>32.4</v>
       </c>
-      <c r="M15" s="383">
+      <c r="M15" s="392">
         <v>21.835000000000001</v>
       </c>
-      <c r="N15" s="383">
+      <c r="N15" s="392">
         <v>16.98</v>
       </c>
-      <c r="O15" s="383">
-        <v>0</v>
-      </c>
-      <c r="P15" s="383">
+      <c r="O15" s="392">
+        <v>0</v>
+      </c>
+      <c r="P15" s="392">
         <v>14.96</v>
       </c>
-      <c r="Q15" s="383">
+      <c r="Q15" s="397">
         <v>30.99</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="390" t="s">
+      <c r="A16" s="396" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="383">
+      <c r="B16" s="392">
         <v>31.565000000000001</v>
       </c>
-      <c r="C16" s="383">
+      <c r="C16" s="392">
         <v>32.229999999999997</v>
       </c>
-      <c r="D16" s="383">
+      <c r="D16" s="392">
         <v>22.4</v>
       </c>
-      <c r="E16" s="383">
+      <c r="E16" s="392">
         <v>27.69</v>
       </c>
-      <c r="F16" s="383">
+      <c r="F16" s="392">
         <v>36.72</v>
       </c>
-      <c r="G16" s="383">
+      <c r="G16" s="392">
         <v>24.88</v>
       </c>
-      <c r="H16" s="383">
+      <c r="H16" s="392">
         <v>16.68</v>
       </c>
-      <c r="I16" s="383">
+      <c r="I16" s="392">
         <v>23.37</v>
       </c>
-      <c r="J16" s="383">
+      <c r="J16" s="392">
         <v>16.309999999999999</v>
       </c>
-      <c r="K16" s="383">
+      <c r="K16" s="392">
         <v>17.78</v>
       </c>
-      <c r="L16" s="383">
+      <c r="L16" s="392">
         <v>35.49</v>
       </c>
-      <c r="M16" s="383">
+      <c r="M16" s="392">
         <v>23.56</v>
       </c>
-      <c r="N16" s="383">
+      <c r="N16" s="392">
         <v>24.13</v>
       </c>
-      <c r="O16" s="383">
+      <c r="O16" s="392">
         <v>14.96</v>
       </c>
-      <c r="P16" s="383">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="383">
+      <c r="P16" s="392">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="397">
         <v>25.555</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16" thickBot="1">
-      <c r="A17" s="391" t="s">
+      <c r="A17" s="398" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="383">
+      <c r="B17" s="399">
         <v>21.64</v>
       </c>
-      <c r="C17" s="383">
+      <c r="C17" s="399">
         <v>31.45</v>
       </c>
-      <c r="D17" s="383">
+      <c r="D17" s="399">
         <v>25.68</v>
       </c>
-      <c r="E17" s="383">
+      <c r="E17" s="399">
         <v>22.54</v>
       </c>
-      <c r="F17" s="383">
+      <c r="F17" s="399">
         <v>34.9</v>
       </c>
-      <c r="G17" s="383">
+      <c r="G17" s="399">
         <v>31.155000000000001</v>
       </c>
-      <c r="H17" s="383">
+      <c r="H17" s="399">
         <v>32.770000000000003</v>
       </c>
-      <c r="I17" s="383">
+      <c r="I17" s="399">
         <v>34.895000000000003</v>
       </c>
-      <c r="J17" s="383">
+      <c r="J17" s="399">
         <v>24</v>
       </c>
-      <c r="K17" s="383">
+      <c r="K17" s="399">
         <v>45.7</v>
       </c>
-      <c r="L17" s="383">
+      <c r="L17" s="399">
         <v>33.299999999999997</v>
       </c>
-      <c r="M17" s="383">
+      <c r="M17" s="399">
         <v>20.885000000000002</v>
       </c>
-      <c r="N17" s="383">
+      <c r="N17" s="399">
         <v>35.57</v>
       </c>
-      <c r="O17" s="383">
+      <c r="O17" s="399">
         <v>30.99</v>
       </c>
-      <c r="P17" s="383">
+      <c r="P17" s="399">
         <v>25.555</v>
       </c>
-      <c r="Q17" s="383">
+      <c r="Q17" s="400">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:Q17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8706,7 +8892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A019ADF-B11B-4148-895B-AD1381F2102C}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -8715,7 +8901,7 @@
     <col min="1" max="17" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16">
+    <row r="1" spans="1:17" ht="45">
       <c r="A1" s="383" t="s">
         <v>29</v>
       </c>
@@ -8768,7 +8954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="30">
       <c r="A2" s="389" t="s">
         <v>1</v>
       </c>
@@ -8821,7 +9007,7 @@
         <v>21.64</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" ht="45">
       <c r="A3" s="390" t="s">
         <v>2</v>
       </c>
@@ -8874,7 +9060,7 @@
         <v>31.45</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" ht="30">
       <c r="A4" s="390" t="s">
         <v>3</v>
       </c>
@@ -8930,7 +9116,7 @@
         <v>25.68</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" ht="30">
       <c r="A5" s="390" t="s">
         <v>4</v>
       </c>
@@ -9148,7 +9334,7 @@
         <v>32.770000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" ht="30">
       <c r="A9" s="390" t="s">
         <v>8</v>
       </c>
@@ -9313,7 +9499,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" ht="30">
       <c r="A12" s="390" t="s">
         <v>11</v>
       </c>
@@ -9369,7 +9555,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="30">
       <c r="A13" s="390" t="s">
         <v>12</v>
       </c>
@@ -9422,7 +9608,7 @@
         <v>20.885000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" ht="30">
       <c r="A14" s="390" t="s">
         <v>13</v>
       </c>
@@ -9475,7 +9661,7 @@
         <v>35.57</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" ht="30">
       <c r="A15" s="390" t="s">
         <v>14</v>
       </c>
@@ -9528,7 +9714,7 @@
         <v>30.99</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" ht="30">
       <c r="A16" s="390" t="s">
         <v>15</v>
       </c>
@@ -9636,6 +9822,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -10893,5 +11080,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Napping/Exam/16 beers.xlsx
+++ b/Napping/Exam/16 beers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/jgivsk20_student_aau_dk/Documents/7. semester/SemProj/Project7-Data-Analysis/Napping/Exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{BA7C6730-DD30-E34E-8262-4A3E40655CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20B357D9-8D17-AC47-9A4B-BA668B76F174}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{BA7C6730-DD30-E34E-8262-4A3E40655CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AECBC3FA-CF65-FD48-856F-CD45B5A7382D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Merge" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="41">
   <si>
     <t>Difference</t>
   </si>
@@ -161,6 +161,9 @@
   <si>
     <t>Gruppe6</t>
   </si>
+  <si>
+    <t>STDEV</t>
+  </si>
 </sst>
 </file>
 
@@ -195,7 +198,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1387,7 +1390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="413">
+  <cellXfs count="416">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2609,6 +2612,15 @@
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2952,8 +2964,8 @@
   </sheetPr>
   <dimension ref="A1:AI61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T61" sqref="T61"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15"/>
@@ -4898,7 +4910,7 @@
         <v>13.91</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" ht="16" thickBot="1">
       <c r="A19" s="104" t="s">
         <v>16</v>
       </c>
@@ -4950,8 +4962,59 @@
       <c r="Q19" s="121">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:35">
+      <c r="S19" s="415">
+        <v>0</v>
+      </c>
+      <c r="T19" s="415">
+        <v>1.5</v>
+      </c>
+      <c r="U19" s="415">
+        <v>3</v>
+      </c>
+      <c r="V19" s="415">
+        <v>4.5</v>
+      </c>
+      <c r="W19" s="415">
+        <v>6</v>
+      </c>
+      <c r="X19" s="415">
+        <v>7.5</v>
+      </c>
+      <c r="Y19" s="415">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="415">
+        <v>10.5</v>
+      </c>
+      <c r="AA19" s="415">
+        <v>12</v>
+      </c>
+      <c r="AB19" s="415">
+        <v>13.5</v>
+      </c>
+      <c r="AC19" s="415">
+        <v>15</v>
+      </c>
+      <c r="AD19" s="415">
+        <v>16.5</v>
+      </c>
+      <c r="AE19" s="415">
+        <v>18</v>
+      </c>
+      <c r="AF19" s="415">
+        <v>19.5</v>
+      </c>
+      <c r="AG19" s="415">
+        <v>21</v>
+      </c>
+      <c r="AH19" s="415">
+        <v>22.5</v>
+      </c>
+      <c r="AI19" s="415">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="17" thickBot="1">
       <c r="A22" s="122"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -4966,6 +5029,9 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="4"/>
+      <c r="S22" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="T22" s="123" t="s">
         <v>1</v>
       </c>
@@ -8040,7 +8106,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="T2:AI17">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8050,7 +8116,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23:AI38">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8059,9 +8125,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T2:AI19 S19:AI19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="30" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -8070,10 +8146,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8949,8 +9025,61 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="413">
+        <v>0</v>
+      </c>
+      <c r="B19" s="414">
+        <v>3</v>
+      </c>
+      <c r="C19" s="414">
+        <v>6</v>
+      </c>
+      <c r="D19" s="413">
+        <v>9</v>
+      </c>
+      <c r="E19" s="414">
+        <v>12</v>
+      </c>
+      <c r="F19" s="414">
+        <v>15</v>
+      </c>
+      <c r="G19" s="413">
+        <v>18</v>
+      </c>
+      <c r="H19" s="414">
+        <v>21</v>
+      </c>
+      <c r="I19" s="414">
+        <v>24</v>
+      </c>
+      <c r="J19" s="413">
+        <v>27</v>
+      </c>
+      <c r="K19" s="414">
+        <v>30</v>
+      </c>
+      <c r="L19" s="414">
+        <v>33</v>
+      </c>
+      <c r="M19" s="413">
+        <v>36</v>
+      </c>
+      <c r="N19" s="414">
+        <v>39</v>
+      </c>
+      <c r="O19" s="414">
+        <v>42</v>
+      </c>
+      <c r="P19" s="413">
+        <v>45</v>
+      </c>
+      <c r="Q19" s="414">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:Q17">
+  <conditionalFormatting sqref="A1:Q1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -11163,10 +11292,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C1B6AA-4FEF-0E48-BCC8-B7B5D5740399}">
-  <dimension ref="A1:AS1002"/>
+  <dimension ref="A1:AT1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y13" zoomScale="210" workbookViewId="0">
-      <selection activeCell="AK24" sqref="AK24"/>
+    <sheetView topLeftCell="A59" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AT22" sqref="AT22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15"/>
@@ -11176,10 +11305,11 @@
     <col min="3" max="14" width="4" customWidth="1"/>
     <col min="15" max="16" width="5" customWidth="1"/>
     <col min="17" max="17" width="5.6640625" customWidth="1"/>
-    <col min="18" max="45" width="5" customWidth="1"/>
+    <col min="18" max="33" width="5" customWidth="1"/>
+    <col min="34" max="46" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:46">
       <c r="A1" s="401"/>
       <c r="B1" s="401" t="s">
         <v>31</v>
@@ -11230,7 +11360,7 @@
       <c r="AR1" s="401"/>
       <c r="AS1" s="401"/>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:46">
       <c r="A2" s="401"/>
       <c r="B2" s="401">
         <v>1</v>
@@ -11331,7 +11461,7 @@
       <c r="AR2" s="401"/>
       <c r="AS2" s="401"/>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:46">
       <c r="A3" s="401">
         <v>1</v>
       </c>
@@ -11434,20 +11564,60 @@
       <c r="AE3" s="403"/>
       <c r="AF3" s="404"/>
       <c r="AG3" s="403"/>
-      <c r="AH3" s="403"/>
-      <c r="AI3" s="403"/>
-      <c r="AJ3" s="403"/>
-      <c r="AK3" s="403"/>
-      <c r="AL3" s="403"/>
-      <c r="AM3" s="403"/>
-      <c r="AN3" s="403"/>
-      <c r="AO3" s="403"/>
-      <c r="AP3" s="403"/>
-      <c r="AQ3" s="403"/>
-      <c r="AR3" s="403"/>
-      <c r="AS3" s="403"/>
-    </row>
-    <row r="4" spans="1:45">
+      <c r="AH3" s="403" t="str">
+        <f>CONCATENATE(ROUND(R3, 2),"+-",ROUND(R19, 2))</f>
+        <v>0+-0</v>
+      </c>
+      <c r="AI3" s="403" t="str">
+        <f t="shared" ref="AI3:AT14" si="1">CONCATENATE(ROUND(S3, 2),"+-",ROUND(S19, 2))</f>
+        <v>32.44+-13.3</v>
+      </c>
+      <c r="AJ3" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>17.61+-1.91</v>
+      </c>
+      <c r="AK3" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>19.57+-9.52</v>
+      </c>
+      <c r="AL3" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>17.99+-8.93</v>
+      </c>
+      <c r="AM3" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>22.89+-5.37</v>
+      </c>
+      <c r="AN3" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>29.24+-11.08</v>
+      </c>
+      <c r="AO3" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>32.8+-3.85</v>
+      </c>
+      <c r="AP3" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>23.97+-16.46</v>
+      </c>
+      <c r="AQ3" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>28.63+-9.93</v>
+      </c>
+      <c r="AR3" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>32.05+-14.27</v>
+      </c>
+      <c r="AS3" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>29.15+-22.89</v>
+      </c>
+      <c r="AT3" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>24.15+-20.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
       <c r="A4" s="401">
         <v>2</v>
       </c>
@@ -11550,20 +11720,60 @@
       <c r="AE4" s="403"/>
       <c r="AF4" s="404"/>
       <c r="AG4" s="403"/>
-      <c r="AH4" s="403"/>
-      <c r="AI4" s="403"/>
-      <c r="AJ4" s="403"/>
-      <c r="AK4" s="403"/>
-      <c r="AL4" s="403"/>
-      <c r="AM4" s="403"/>
-      <c r="AN4" s="403"/>
-      <c r="AO4" s="403"/>
-      <c r="AP4" s="403"/>
-      <c r="AQ4" s="403"/>
-      <c r="AR4" s="403"/>
-      <c r="AS4" s="403"/>
-    </row>
-    <row r="5" spans="1:45">
+      <c r="AH4" s="403" t="str">
+        <f t="shared" ref="AH4:AH14" si="2">CONCATENATE(ROUND(R4, 2),"+-",ROUND(R20, 2))</f>
+        <v>32.44+-13.3</v>
+      </c>
+      <c r="AI4" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>0+-0</v>
+      </c>
+      <c r="AJ4" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>27.4+-7.74</v>
+      </c>
+      <c r="AK4" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>26.11+-13.54</v>
+      </c>
+      <c r="AL4" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>16.34+-6.35</v>
+      </c>
+      <c r="AM4" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>26.6+-21.7</v>
+      </c>
+      <c r="AN4" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>28.92+-15.8</v>
+      </c>
+      <c r="AO4" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>28.17+-22.94</v>
+      </c>
+      <c r="AP4" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>26.89+-24.98</v>
+      </c>
+      <c r="AQ4" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>17.56+-10.12</v>
+      </c>
+      <c r="AR4" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>21.11+-1.84</v>
+      </c>
+      <c r="AS4" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>38.86+-13.77</v>
+      </c>
+      <c r="AT4" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>34.93+-19.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
       <c r="A5" s="401">
         <v>3</v>
       </c>
@@ -11666,20 +11876,60 @@
       <c r="AE5" s="403"/>
       <c r="AF5" s="404"/>
       <c r="AG5" s="403"/>
-      <c r="AH5" s="403"/>
-      <c r="AI5" s="403"/>
-      <c r="AJ5" s="403"/>
-      <c r="AK5" s="403"/>
-      <c r="AL5" s="403"/>
-      <c r="AM5" s="403"/>
-      <c r="AN5" s="403"/>
-      <c r="AO5" s="403"/>
-      <c r="AP5" s="403"/>
-      <c r="AQ5" s="403"/>
-      <c r="AR5" s="403"/>
-      <c r="AS5" s="403"/>
-    </row>
-    <row r="6" spans="1:45">
+      <c r="AH5" s="403" t="str">
+        <f t="shared" si="2"/>
+        <v>17.61+-1.91</v>
+      </c>
+      <c r="AI5" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>27.4+-7.74</v>
+      </c>
+      <c r="AJ5" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>0+-0</v>
+      </c>
+      <c r="AK5" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>16.1+-12.71</v>
+      </c>
+      <c r="AL5" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>12.33+-6.77</v>
+      </c>
+      <c r="AM5" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>15.3+-7.79</v>
+      </c>
+      <c r="AN5" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>18.75+-10.57</v>
+      </c>
+      <c r="AO5" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>29.68+-11.29</v>
+      </c>
+      <c r="AP5" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>25.03+-1.59</v>
+      </c>
+      <c r="AQ5" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>16.74+-8.96</v>
+      </c>
+      <c r="AR5" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>22.67+-15.06</v>
+      </c>
+      <c r="AS5" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>25.35+-20.59</v>
+      </c>
+      <c r="AT5" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>31.71+-7.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
       <c r="A6" s="401">
         <v>4</v>
       </c>
@@ -11782,20 +12032,60 @@
       <c r="AE6" s="403"/>
       <c r="AF6" s="404"/>
       <c r="AG6" s="403"/>
-      <c r="AH6" s="403"/>
-      <c r="AI6" s="403"/>
-      <c r="AJ6" s="403"/>
-      <c r="AK6" s="403"/>
-      <c r="AL6" s="403"/>
-      <c r="AM6" s="403"/>
-      <c r="AN6" s="403"/>
-      <c r="AO6" s="403"/>
-      <c r="AP6" s="403"/>
-      <c r="AQ6" s="403"/>
-      <c r="AR6" s="403"/>
-      <c r="AS6" s="403"/>
-    </row>
-    <row r="7" spans="1:45">
+      <c r="AH6" s="403" t="str">
+        <f t="shared" si="2"/>
+        <v>19.57+-9.52</v>
+      </c>
+      <c r="AI6" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>26.11+-13.54</v>
+      </c>
+      <c r="AJ6" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>16.1+-12.71</v>
+      </c>
+      <c r="AK6" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>0+-0</v>
+      </c>
+      <c r="AL6" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>17.66+-0.53</v>
+      </c>
+      <c r="AM6" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>22.37+-1.79</v>
+      </c>
+      <c r="AN6" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>28.22+-10.19</v>
+      </c>
+      <c r="AO6" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>21.53+-7.91</v>
+      </c>
+      <c r="AP6" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>19.78+-13.94</v>
+      </c>
+      <c r="AQ6" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>27.86+-6.05</v>
+      </c>
+      <c r="AR6" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>25.33+-20.08</v>
+      </c>
+      <c r="AS6" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>36.72+-19.07</v>
+      </c>
+      <c r="AT6" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>34.9+-15.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
       <c r="A7" s="401">
         <v>5</v>
       </c>
@@ -11898,20 +12188,60 @@
       <c r="AE7" s="403"/>
       <c r="AF7" s="404"/>
       <c r="AG7" s="403"/>
-      <c r="AH7" s="403"/>
-      <c r="AI7" s="403"/>
-      <c r="AJ7" s="403"/>
-      <c r="AK7" s="403"/>
-      <c r="AL7" s="403"/>
-      <c r="AM7" s="403"/>
-      <c r="AN7" s="403"/>
-      <c r="AO7" s="403"/>
-      <c r="AP7" s="403"/>
-      <c r="AQ7" s="403"/>
-      <c r="AR7" s="403"/>
-      <c r="AS7" s="403"/>
-    </row>
-    <row r="8" spans="1:45">
+      <c r="AH7" s="403" t="str">
+        <f t="shared" si="2"/>
+        <v>17.99+-8.93</v>
+      </c>
+      <c r="AI7" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>16.34+-6.35</v>
+      </c>
+      <c r="AJ7" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>12.33+-6.77</v>
+      </c>
+      <c r="AK7" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>17.66+-0.53</v>
+      </c>
+      <c r="AL7" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>0+-0</v>
+      </c>
+      <c r="AM7" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>15.75+-10.37</v>
+      </c>
+      <c r="AN7" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>22.14+-1.86</v>
+      </c>
+      <c r="AO7" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>24.6+-6.45</v>
+      </c>
+      <c r="AP7" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>23.41+-10.91</v>
+      </c>
+      <c r="AQ7" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>14.05+-5.23</v>
+      </c>
+      <c r="AR7" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>18.48+-13.45</v>
+      </c>
+      <c r="AS7" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>30.78+-9.91</v>
+      </c>
+      <c r="AT7" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>28.7+-9.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46">
       <c r="A8" s="401">
         <v>6</v>
       </c>
@@ -12014,20 +12344,60 @@
       <c r="AE8" s="403"/>
       <c r="AF8" s="404"/>
       <c r="AG8" s="403"/>
-      <c r="AH8" s="403"/>
-      <c r="AI8" s="403"/>
-      <c r="AJ8" s="403"/>
-      <c r="AK8" s="403"/>
-      <c r="AL8" s="403"/>
-      <c r="AM8" s="403"/>
-      <c r="AN8" s="403"/>
-      <c r="AO8" s="403"/>
-      <c r="AP8" s="403"/>
-      <c r="AQ8" s="403"/>
-      <c r="AR8" s="403"/>
-      <c r="AS8" s="403"/>
-    </row>
-    <row r="9" spans="1:45">
+      <c r="AH8" s="403" t="str">
+        <f t="shared" si="2"/>
+        <v>22.89+-5.37</v>
+      </c>
+      <c r="AI8" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>26.6+-21.7</v>
+      </c>
+      <c r="AJ8" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>15.3+-7.79</v>
+      </c>
+      <c r="AK8" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>22.37+-1.79</v>
+      </c>
+      <c r="AL8" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>15.75+-10.37</v>
+      </c>
+      <c r="AM8" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>0+-0</v>
+      </c>
+      <c r="AN8" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>10.99+-6</v>
+      </c>
+      <c r="AO8" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>18.06+-13.25</v>
+      </c>
+      <c r="AP8" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>20.07+-9.04</v>
+      </c>
+      <c r="AQ8" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>15.08+-13.53</v>
+      </c>
+      <c r="AR8" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>22.74+-10.29</v>
+      </c>
+      <c r="AS8" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>21.62+-11.71</v>
+      </c>
+      <c r="AT8" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>26.81+-3.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
       <c r="A9" s="401">
         <v>7</v>
       </c>
@@ -12130,20 +12500,60 @@
       <c r="AE9" s="403"/>
       <c r="AF9" s="404"/>
       <c r="AG9" s="403"/>
-      <c r="AH9" s="403"/>
-      <c r="AI9" s="403"/>
-      <c r="AJ9" s="403"/>
-      <c r="AK9" s="403"/>
-      <c r="AL9" s="403"/>
-      <c r="AM9" s="403"/>
-      <c r="AN9" s="403"/>
-      <c r="AO9" s="403"/>
-      <c r="AP9" s="403"/>
-      <c r="AQ9" s="403"/>
-      <c r="AR9" s="403"/>
-      <c r="AS9" s="403"/>
-    </row>
-    <row r="10" spans="1:45">
+      <c r="AH9" s="403" t="str">
+        <f t="shared" si="2"/>
+        <v>29.24+-11.08</v>
+      </c>
+      <c r="AI9" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>28.92+-15.8</v>
+      </c>
+      <c r="AJ9" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>18.75+-10.57</v>
+      </c>
+      <c r="AK9" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>28.22+-10.19</v>
+      </c>
+      <c r="AL9" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>22.14+-1.86</v>
+      </c>
+      <c r="AM9" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>10.99+-6</v>
+      </c>
+      <c r="AN9" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>0+-0</v>
+      </c>
+      <c r="AO9" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>25.74+-13.66</v>
+      </c>
+      <c r="AP9" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>18.76+-10.53</v>
+      </c>
+      <c r="AQ9" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>12.52+-9.63</v>
+      </c>
+      <c r="AR9" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>16.19+-6.89</v>
+      </c>
+      <c r="AS9" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>16.31+-1.89</v>
+      </c>
+      <c r="AT9" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>24+-11.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
       <c r="A10" s="401">
         <v>8</v>
       </c>
@@ -12246,20 +12656,60 @@
       <c r="AE10" s="403"/>
       <c r="AF10" s="404"/>
       <c r="AG10" s="403"/>
-      <c r="AH10" s="403"/>
-      <c r="AI10" s="403"/>
-      <c r="AJ10" s="403"/>
-      <c r="AK10" s="403"/>
-      <c r="AL10" s="403"/>
-      <c r="AM10" s="403"/>
-      <c r="AN10" s="403"/>
-      <c r="AO10" s="403"/>
-      <c r="AP10" s="403"/>
-      <c r="AQ10" s="403"/>
-      <c r="AR10" s="403"/>
-      <c r="AS10" s="403"/>
-    </row>
-    <row r="11" spans="1:45">
+      <c r="AH10" s="403" t="str">
+        <f t="shared" si="2"/>
+        <v>32.8+-3.85</v>
+      </c>
+      <c r="AI10" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>28.17+-22.94</v>
+      </c>
+      <c r="AJ10" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>29.68+-11.29</v>
+      </c>
+      <c r="AK10" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>21.53+-7.91</v>
+      </c>
+      <c r="AL10" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>24.6+-6.45</v>
+      </c>
+      <c r="AM10" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>18.06+-13.25</v>
+      </c>
+      <c r="AN10" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>25.74+-13.66</v>
+      </c>
+      <c r="AO10" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>0+-0</v>
+      </c>
+      <c r="AP10" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>24.37+-9.27</v>
+      </c>
+      <c r="AQ10" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>31.03+-5.2</v>
+      </c>
+      <c r="AR10" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>32.4+-5.44</v>
+      </c>
+      <c r="AS10" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>35.49+-13.97</v>
+      </c>
+      <c r="AT10" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>33.3+-6.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46">
       <c r="A11" s="401">
         <v>9</v>
       </c>
@@ -12362,20 +12812,60 @@
       <c r="AE11" s="403"/>
       <c r="AF11" s="404"/>
       <c r="AG11" s="403"/>
-      <c r="AH11" s="403"/>
-      <c r="AI11" s="403"/>
-      <c r="AJ11" s="403"/>
-      <c r="AK11" s="403"/>
-      <c r="AL11" s="403"/>
-      <c r="AM11" s="403"/>
-      <c r="AN11" s="403"/>
-      <c r="AO11" s="403"/>
-      <c r="AP11" s="403"/>
-      <c r="AQ11" s="403"/>
-      <c r="AR11" s="403"/>
-      <c r="AS11" s="403"/>
-    </row>
-    <row r="12" spans="1:45">
+      <c r="AH11" s="403" t="str">
+        <f t="shared" si="2"/>
+        <v>23.97+-16.46</v>
+      </c>
+      <c r="AI11" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>26.89+-24.98</v>
+      </c>
+      <c r="AJ11" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>25.03+-1.59</v>
+      </c>
+      <c r="AK11" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>19.78+-13.94</v>
+      </c>
+      <c r="AL11" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>23.41+-10.91</v>
+      </c>
+      <c r="AM11" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>20.07+-9.04</v>
+      </c>
+      <c r="AN11" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>18.76+-10.53</v>
+      </c>
+      <c r="AO11" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>24.37+-9.27</v>
+      </c>
+      <c r="AP11" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>0+-0</v>
+      </c>
+      <c r="AQ11" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>23.51+-16.79</v>
+      </c>
+      <c r="AR11" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>19.04+-12.92</v>
+      </c>
+      <c r="AS11" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>22.86+-6.02</v>
+      </c>
+      <c r="AT11" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>20.4+-10.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46">
       <c r="A12" s="401">
         <v>10</v>
       </c>
@@ -12478,20 +12968,60 @@
       <c r="AE12" s="403"/>
       <c r="AF12" s="404"/>
       <c r="AG12" s="403"/>
-      <c r="AH12" s="403"/>
-      <c r="AI12" s="403"/>
-      <c r="AJ12" s="403"/>
-      <c r="AK12" s="403"/>
-      <c r="AL12" s="403"/>
-      <c r="AM12" s="403"/>
-      <c r="AN12" s="403"/>
-      <c r="AO12" s="403"/>
-      <c r="AP12" s="403"/>
-      <c r="AQ12" s="403"/>
-      <c r="AR12" s="403"/>
-      <c r="AS12" s="403"/>
-    </row>
-    <row r="13" spans="1:45">
+      <c r="AH12" s="403" t="str">
+        <f t="shared" si="2"/>
+        <v>28.63+-9.93</v>
+      </c>
+      <c r="AI12" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>17.56+-10.12</v>
+      </c>
+      <c r="AJ12" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>16.74+-8.96</v>
+      </c>
+      <c r="AK12" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>27.86+-6.05</v>
+      </c>
+      <c r="AL12" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>14.05+-5.23</v>
+      </c>
+      <c r="AM12" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>15.08+-13.53</v>
+      </c>
+      <c r="AN12" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>12.52+-9.63</v>
+      </c>
+      <c r="AO12" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>31.03+-5.2</v>
+      </c>
+      <c r="AP12" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>23.51+-16.79</v>
+      </c>
+      <c r="AQ12" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>0+-0</v>
+      </c>
+      <c r="AR12" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>13.51+-0.57</v>
+      </c>
+      <c r="AS12" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>23.69+-12.49</v>
+      </c>
+      <c r="AT12" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>28.74+-12.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46">
       <c r="A13" s="401">
         <v>11</v>
       </c>
@@ -12594,20 +13124,60 @@
       <c r="AE13" s="403"/>
       <c r="AF13" s="404"/>
       <c r="AG13" s="403"/>
-      <c r="AH13" s="403"/>
-      <c r="AI13" s="403"/>
-      <c r="AJ13" s="403"/>
-      <c r="AK13" s="403"/>
-      <c r="AL13" s="403"/>
-      <c r="AM13" s="403"/>
-      <c r="AN13" s="403"/>
-      <c r="AO13" s="403"/>
-      <c r="AP13" s="403"/>
-      <c r="AQ13" s="403"/>
-      <c r="AR13" s="403"/>
-      <c r="AS13" s="403"/>
-    </row>
-    <row r="14" spans="1:45">
+      <c r="AH13" s="403" t="str">
+        <f t="shared" si="2"/>
+        <v>32.05+-14.27</v>
+      </c>
+      <c r="AI13" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>21.11+-1.84</v>
+      </c>
+      <c r="AJ13" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>22.67+-15.06</v>
+      </c>
+      <c r="AK13" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>25.33+-20.08</v>
+      </c>
+      <c r="AL13" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>18.48+-13.45</v>
+      </c>
+      <c r="AM13" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>22.74+-10.29</v>
+      </c>
+      <c r="AN13" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>16.19+-6.89</v>
+      </c>
+      <c r="AO13" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>32.4+-5.44</v>
+      </c>
+      <c r="AP13" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>19.04+-12.92</v>
+      </c>
+      <c r="AQ13" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>13.51+-0.57</v>
+      </c>
+      <c r="AR13" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>0+-0</v>
+      </c>
+      <c r="AS13" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>21.85+-12.01</v>
+      </c>
+      <c r="AT13" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>24.73+-16.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46">
       <c r="A14" s="401">
         <v>12</v>
       </c>
@@ -12710,20 +13280,60 @@
       <c r="AE14" s="403"/>
       <c r="AF14" s="404"/>
       <c r="AG14" s="403"/>
-      <c r="AH14" s="403"/>
-      <c r="AI14" s="403"/>
-      <c r="AJ14" s="403"/>
-      <c r="AK14" s="403"/>
-      <c r="AL14" s="403"/>
-      <c r="AM14" s="403"/>
-      <c r="AN14" s="403"/>
-      <c r="AO14" s="403"/>
-      <c r="AP14" s="403"/>
-      <c r="AQ14" s="403"/>
-      <c r="AR14" s="403"/>
-      <c r="AS14" s="403"/>
-    </row>
-    <row r="15" spans="1:45">
+      <c r="AH14" s="403" t="str">
+        <f t="shared" si="2"/>
+        <v>29.15+-22.89</v>
+      </c>
+      <c r="AI14" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>38.86+-13.77</v>
+      </c>
+      <c r="AJ14" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>25.35+-20.59</v>
+      </c>
+      <c r="AK14" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>36.72+-19.07</v>
+      </c>
+      <c r="AL14" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>30.78+-9.91</v>
+      </c>
+      <c r="AM14" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>21.62+-11.71</v>
+      </c>
+      <c r="AN14" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>16.31+-1.89</v>
+      </c>
+      <c r="AO14" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>35.49+-13.97</v>
+      </c>
+      <c r="AP14" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>22.86+-6.02</v>
+      </c>
+      <c r="AQ14" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>23.69+-12.49</v>
+      </c>
+      <c r="AR14" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>21.85+-12.01</v>
+      </c>
+      <c r="AS14" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>0+-0</v>
+      </c>
+      <c r="AT14" s="403" t="str">
+        <f t="shared" si="1"/>
+        <v>13.91+-11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46">
       <c r="A15" s="401">
         <v>13</v>
       </c>
@@ -12826,20 +13436,60 @@
       <c r="AE15" s="403"/>
       <c r="AF15" s="404"/>
       <c r="AG15" s="403"/>
-      <c r="AH15" s="403"/>
-      <c r="AI15" s="403"/>
-      <c r="AJ15" s="403"/>
-      <c r="AK15" s="403"/>
-      <c r="AL15" s="403"/>
-      <c r="AM15" s="403"/>
-      <c r="AN15" s="403"/>
-      <c r="AO15" s="403"/>
-      <c r="AP15" s="403"/>
-      <c r="AQ15" s="403"/>
-      <c r="AR15" s="403"/>
-      <c r="AS15" s="403"/>
-    </row>
-    <row r="16" spans="1:45">
+      <c r="AH15" s="403" t="str">
+        <f>CONCATENATE(ROUND(R15, 2),"+-",ROUND(R31, 2))</f>
+        <v>24.15+-20.76</v>
+      </c>
+      <c r="AI15" s="403" t="str">
+        <f t="shared" ref="AI15:AT15" si="3">CONCATENATE(ROUND(S15, 2),"+-",ROUND(S31, 2))</f>
+        <v>34.93+-19.41</v>
+      </c>
+      <c r="AJ15" s="403" t="str">
+        <f t="shared" si="3"/>
+        <v>31.71+-7.78</v>
+      </c>
+      <c r="AK15" s="403" t="str">
+        <f t="shared" si="3"/>
+        <v>34.9+-15.54</v>
+      </c>
+      <c r="AL15" s="403" t="str">
+        <f t="shared" si="3"/>
+        <v>28.7+-9.44</v>
+      </c>
+      <c r="AM15" s="403" t="str">
+        <f t="shared" si="3"/>
+        <v>26.81+-3.24</v>
+      </c>
+      <c r="AN15" s="403" t="str">
+        <f t="shared" si="3"/>
+        <v>24+-11.09</v>
+      </c>
+      <c r="AO15" s="403" t="str">
+        <f t="shared" si="3"/>
+        <v>33.3+-6.11</v>
+      </c>
+      <c r="AP15" s="403" t="str">
+        <f t="shared" si="3"/>
+        <v>20.4+-10.73</v>
+      </c>
+      <c r="AQ15" s="403" t="str">
+        <f t="shared" si="3"/>
+        <v>28.74+-12.81</v>
+      </c>
+      <c r="AR15" s="403" t="str">
+        <f t="shared" si="3"/>
+        <v>24.73+-16.95</v>
+      </c>
+      <c r="AS15" s="403" t="str">
+        <f t="shared" si="3"/>
+        <v>13.91+-11</v>
+      </c>
+      <c r="AT15" s="403" t="str">
+        <f t="shared" si="3"/>
+        <v>0+-0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46">
       <c r="A16" s="401"/>
       <c r="B16" s="401"/>
       <c r="C16" s="401"/>
@@ -13085,55 +13735,55 @@
         <v>1</v>
       </c>
       <c r="R19" s="403">
-        <f t="shared" ref="R19:AD31" si="1">STDEV(B19,B3,B35)</f>
+        <f t="shared" ref="R19:AD31" si="4">STDEV(B19,B3,B35)</f>
         <v>0</v>
       </c>
       <c r="S19" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.301568829778439</v>
       </c>
       <c r="T19" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.9111514853616387</v>
       </c>
       <c r="U19" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.5158516872287002</v>
       </c>
       <c r="V19" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.9277171400830913</v>
       </c>
       <c r="W19" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.3742813473058844</v>
       </c>
       <c r="X19" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.08324110237313</v>
       </c>
       <c r="Y19" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.8533405420924498</v>
       </c>
       <c r="Z19" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.459928108388972</v>
       </c>
       <c r="AA19" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.9321649200967332</v>
       </c>
       <c r="AB19" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.274993286630082</v>
       </c>
       <c r="AC19" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22.887168894382722</v>
       </c>
       <c r="AD19" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20.764980937466166</v>
       </c>
       <c r="AE19" s="403"/>
@@ -13141,47 +13791,47 @@
         <v>0</v>
       </c>
       <c r="AG19" s="412">
-        <f>AF19+2</f>
+        <f t="shared" ref="AG19:AQ19" si="5">AF19+2</f>
         <v>2</v>
       </c>
       <c r="AH19" s="412">
-        <f>AG19+2</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AI19" s="412">
-        <f>AH19+2</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AJ19" s="412">
-        <f>AI19+2</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="AK19" s="412">
-        <f>AJ19+2</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AL19" s="412">
-        <f>AK19+2</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="AM19" s="412">
-        <f>AL19+2</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="AN19" s="412">
-        <f>AM19+2</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="AO19" s="412">
-        <f>AN19+2</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="AP19" s="412">
-        <f>AO19+2</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="AQ19" s="412">
-        <f>AP19+2</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="AR19" s="412">
@@ -13238,55 +13888,55 @@
         <v>2</v>
       </c>
       <c r="R20" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.301568829778439</v>
       </c>
       <c r="S20" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T20" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.7393432107210192</v>
       </c>
       <c r="U20" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.536928504403553</v>
       </c>
       <c r="V20" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.3474824405691201</v>
       </c>
       <c r="W20" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>21.696737850039419</v>
       </c>
       <c r="X20" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15.799235213558068</v>
       </c>
       <c r="Y20" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22.937572524862631</v>
       </c>
       <c r="Z20" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24.981948149280377</v>
       </c>
       <c r="AA20" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.118954162033413</v>
       </c>
       <c r="AB20" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.8371445234384802</v>
       </c>
       <c r="AC20" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.771307127502464</v>
       </c>
       <c r="AD20" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>19.414665419041679</v>
       </c>
       <c r="AE20" s="403"/>
@@ -13357,60 +14007,60 @@
         <v>3</v>
       </c>
       <c r="R21" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.9111514853616387</v>
       </c>
       <c r="S21" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.7393432107210192</v>
       </c>
       <c r="T21" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U21" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.709352199594326</v>
       </c>
       <c r="V21" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.7746020793352413</v>
       </c>
       <c r="W21" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.7914761117518658</v>
       </c>
       <c r="X21" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.57248472845118</v>
       </c>
       <c r="Y21" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.285133288239587</v>
       </c>
       <c r="Z21" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.594783161854092</v>
       </c>
       <c r="AA21" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.960810975203831</v>
       </c>
       <c r="AB21" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15.062284023347848</v>
       </c>
       <c r="AC21" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20.594320414457325</v>
       </c>
       <c r="AD21" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.7773774500148924</v>
       </c>
       <c r="AE21" s="403"/>
       <c r="AF21" s="403">
-        <f t="shared" ref="AF20:AF30" si="2">AF20+2</f>
+        <f t="shared" ref="AF21:AF30" si="6">AF20+2</f>
         <v>4</v>
       </c>
       <c r="AG21" s="403"/>
@@ -13476,60 +14126,60 @@
         <v>4</v>
       </c>
       <c r="R22" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.5158516872287002</v>
       </c>
       <c r="S22" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.536928504403553</v>
       </c>
       <c r="T22" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.709352199594326</v>
       </c>
       <c r="U22" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V22" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.53113086899558104</v>
       </c>
       <c r="W22" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.7905958040086365</v>
       </c>
       <c r="X22" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.189844617722754</v>
       </c>
       <c r="Y22" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.9116707043034395</v>
       </c>
       <c r="Z22" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.938839023868999</v>
       </c>
       <c r="AA22" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.0511018280420421</v>
       </c>
       <c r="AB22" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20.080842445807228</v>
       </c>
       <c r="AC22" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>19.065178554981678</v>
       </c>
       <c r="AD22" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15.540472965775535</v>
       </c>
       <c r="AE22" s="403"/>
       <c r="AF22" s="403">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AG22" s="403"/>
@@ -13595,60 +14245,60 @@
         <v>5</v>
       </c>
       <c r="R23" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.9277171400830913</v>
       </c>
       <c r="S23" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.3474824405691201</v>
       </c>
       <c r="T23" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.7746020793352413</v>
       </c>
       <c r="U23" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.53113086899558104</v>
       </c>
       <c r="V23" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W23" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.374325680897693</v>
       </c>
       <c r="X23" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.8558106943687267</v>
       </c>
       <c r="Y23" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.4538696402494216</v>
       </c>
       <c r="Z23" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.912964766735024</v>
       </c>
       <c r="AA23" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.2323449172749754</v>
       </c>
       <c r="AB23" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.448880994342982</v>
       </c>
       <c r="AC23" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.9066694706142293</v>
       </c>
       <c r="AD23" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.4357847227103253</v>
       </c>
       <c r="AE23" s="403"/>
       <c r="AF23" s="403">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="AG23" s="403"/>
@@ -13714,60 +14364,60 @@
         <v>6</v>
       </c>
       <c r="R24" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.3742813473058844</v>
       </c>
       <c r="S24" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>21.696737850039419</v>
       </c>
       <c r="T24" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.7914761117518658</v>
       </c>
       <c r="U24" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.7905958040086365</v>
       </c>
       <c r="V24" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.374325680897693</v>
       </c>
       <c r="W24" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X24" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.9989526863722951</v>
       </c>
       <c r="Y24" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.251435142403757</v>
       </c>
       <c r="Z24" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.0405881077136456</v>
       </c>
       <c r="AA24" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.530537067438718</v>
       </c>
       <c r="AB24" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.287657653713012</v>
       </c>
       <c r="AC24" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.711986737242032</v>
       </c>
       <c r="AD24" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.2389504472899864</v>
       </c>
       <c r="AE24" s="403"/>
       <c r="AF24" s="403">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AG24" s="403"/>
@@ -13833,60 +14483,60 @@
         <v>7</v>
       </c>
       <c r="R25" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.08324110237313</v>
       </c>
       <c r="S25" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15.799235213558068</v>
       </c>
       <c r="T25" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.57248472845118</v>
       </c>
       <c r="U25" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.189844617722754</v>
       </c>
       <c r="V25" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.8558106943687267</v>
       </c>
       <c r="W25" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.9989526863722951</v>
       </c>
       <c r="X25" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y25" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.660206196589172</v>
       </c>
       <c r="Z25" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.528646636676534</v>
       </c>
       <c r="AA25" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.6267197597797232</v>
       </c>
       <c r="AB25" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.8924814109288688</v>
       </c>
       <c r="AC25" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.8931719414781121</v>
       </c>
       <c r="AD25" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.091642499347577</v>
       </c>
       <c r="AE25" s="403"/>
       <c r="AF25" s="403">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="AG25" s="403"/>
@@ -13952,60 +14602,60 @@
         <v>8</v>
       </c>
       <c r="R26" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.8533405420924498</v>
       </c>
       <c r="S26" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22.937572524862631</v>
       </c>
       <c r="T26" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.285133288239587</v>
       </c>
       <c r="U26" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.9116707043034395</v>
       </c>
       <c r="V26" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.4538696402494216</v>
       </c>
       <c r="W26" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.251435142403757</v>
       </c>
       <c r="X26" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.660206196589172</v>
       </c>
       <c r="Y26" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z26" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.2726821003058859</v>
       </c>
       <c r="AA26" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.1978104364562467</v>
       </c>
       <c r="AB26" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.4386763095443955</v>
       </c>
       <c r="AC26" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.967234276453352</v>
       </c>
       <c r="AD26" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.1140194089758033</v>
       </c>
       <c r="AE26" s="403"/>
       <c r="AF26" s="403">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="AG26" s="403"/>
@@ -14071,60 +14721,60 @@
         <v>9</v>
       </c>
       <c r="R27" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.459928108388972</v>
       </c>
       <c r="S27" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24.981948149280377</v>
       </c>
       <c r="T27" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.594783161854092</v>
       </c>
       <c r="U27" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.938839023868999</v>
       </c>
       <c r="V27" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.912964766735024</v>
       </c>
       <c r="W27" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.0405881077136456</v>
       </c>
       <c r="X27" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.528646636676534</v>
       </c>
       <c r="Y27" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.2726821003058859</v>
       </c>
       <c r="Z27" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA27" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.792501302664821</v>
       </c>
       <c r="AB27" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.917853278828225</v>
       </c>
       <c r="AC27" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.0160535236980737</v>
       </c>
       <c r="AD27" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.734921207597818</v>
       </c>
       <c r="AE27" s="403"/>
       <c r="AF27" s="403">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="AG27" s="403"/>
@@ -14190,60 +14840,60 @@
         <v>10</v>
       </c>
       <c r="R28" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.9321649200967332</v>
       </c>
       <c r="S28" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.118954162033413</v>
       </c>
       <c r="T28" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.960810975203831</v>
       </c>
       <c r="U28" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.0511018280420421</v>
       </c>
       <c r="V28" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.2323449172749754</v>
       </c>
       <c r="W28" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.530537067438718</v>
       </c>
       <c r="X28" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.6267197597797232</v>
       </c>
       <c r="Y28" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.1978104364562467</v>
       </c>
       <c r="Z28" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.792501302664821</v>
       </c>
       <c r="AA28" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB28" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.57492028432934306</v>
       </c>
       <c r="AC28" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.487715296776006</v>
       </c>
       <c r="AD28" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.80516692589363</v>
       </c>
       <c r="AE28" s="403"/>
       <c r="AF28" s="403">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="AG28" s="403"/>
@@ -14309,60 +14959,60 @@
         <v>11</v>
       </c>
       <c r="R29" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.274993286630082</v>
       </c>
       <c r="S29" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.8371445234384802</v>
       </c>
       <c r="T29" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15.062284023347848</v>
       </c>
       <c r="U29" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20.080842445807228</v>
       </c>
       <c r="V29" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.448880994342982</v>
       </c>
       <c r="W29" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.287657653713012</v>
       </c>
       <c r="X29" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.8924814109288688</v>
       </c>
       <c r="Y29" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.4386763095443955</v>
       </c>
       <c r="Z29" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.917853278828225</v>
       </c>
       <c r="AA29" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.57492028432934306</v>
       </c>
       <c r="AB29" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC29" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.009812654658688</v>
       </c>
       <c r="AD29" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.954223662556775</v>
       </c>
       <c r="AE29" s="403"/>
       <c r="AF29" s="403">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AG29" s="403"/>
@@ -14428,60 +15078,60 @@
         <v>12</v>
       </c>
       <c r="R30" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22.887168894382722</v>
       </c>
       <c r="S30" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.771307127502464</v>
       </c>
       <c r="T30" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20.594320414457325</v>
       </c>
       <c r="U30" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>19.065178554981678</v>
       </c>
       <c r="V30" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.9066694706142293</v>
       </c>
       <c r="W30" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.711986737242032</v>
       </c>
       <c r="X30" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.8931719414781121</v>
       </c>
       <c r="Y30" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.967234276453352</v>
       </c>
       <c r="Z30" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.0160535236980737</v>
       </c>
       <c r="AA30" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.487715296776006</v>
       </c>
       <c r="AB30" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.009812654658688</v>
       </c>
       <c r="AC30" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD30" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.001910440161442</v>
       </c>
       <c r="AE30" s="403"/>
       <c r="AF30" s="403">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="AG30" s="403"/>
@@ -14547,55 +15197,55 @@
         <v>13</v>
       </c>
       <c r="R31" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20.764980937466166</v>
       </c>
       <c r="S31" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>19.414665419041679</v>
       </c>
       <c r="T31" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.7773774500148924</v>
       </c>
       <c r="U31" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15.540472965775535</v>
       </c>
       <c r="V31" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.4357847227103253</v>
       </c>
       <c r="W31" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.2389504472899864</v>
       </c>
       <c r="X31" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.091642499347577</v>
       </c>
       <c r="Y31" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.1140194089758033</v>
       </c>
       <c r="Z31" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.734921207597818</v>
       </c>
       <c r="AA31" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.80516692589363</v>
       </c>
       <c r="AB31" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16.954223662556775</v>
       </c>
       <c r="AC31" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11.001910440161442</v>
       </c>
       <c r="AD31" s="403">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE31" s="403"/>
@@ -16006,55 +16656,55 @@
         <v>1</v>
       </c>
       <c r="R51" s="403">
-        <f t="shared" ref="R51:AD63" si="3">AVERAGE(B51,B67,B83)</f>
+        <f t="shared" ref="R51:AD63" si="7">AVERAGE(B51,B67,B83)</f>
         <v>0</v>
       </c>
       <c r="S51" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.693333333333332</v>
       </c>
       <c r="T51" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.289999999999996</v>
       </c>
       <c r="U51" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.986666666666668</v>
       </c>
       <c r="V51" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>27.923333333333332</v>
       </c>
       <c r="W51" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25.033333333333331</v>
       </c>
       <c r="X51" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>28.406666666666666</v>
       </c>
       <c r="Y51" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>36.520000000000003</v>
       </c>
       <c r="Z51" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.053333333333331</v>
       </c>
       <c r="AA51" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.803333333333331</v>
       </c>
       <c r="AB51" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>31.936666666666667</v>
       </c>
       <c r="AC51" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>33.979999999999997</v>
       </c>
       <c r="AD51" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19.13</v>
       </c>
       <c r="AE51" s="403"/>
@@ -16122,55 +16772,55 @@
         <v>2</v>
       </c>
       <c r="R52" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.693333333333332</v>
       </c>
       <c r="S52" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T52" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.846666666666668</v>
       </c>
       <c r="U52" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.14</v>
       </c>
       <c r="V52" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.130000000000001</v>
       </c>
       <c r="W52" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.88</v>
       </c>
       <c r="X52" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.493333333333336</v>
       </c>
       <c r="Y52" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.53</v>
       </c>
       <c r="Z52" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.433333333333334</v>
       </c>
       <c r="AA52" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.826666666666668</v>
       </c>
       <c r="AB52" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.733333333333331</v>
       </c>
       <c r="AC52" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25.603333333333335</v>
       </c>
       <c r="AD52" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>27.973333333333329</v>
       </c>
       <c r="AE52" s="403"/>
@@ -16238,55 +16888,55 @@
         <v>3</v>
       </c>
       <c r="R53" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.289999999999996</v>
       </c>
       <c r="S53" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.846666666666668</v>
       </c>
       <c r="T53" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U53" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12.660000000000002</v>
       </c>
       <c r="V53" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.423333333333336</v>
       </c>
       <c r="W53" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.5366666666666671</v>
       </c>
       <c r="X53" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>28.840000000000003</v>
       </c>
       <c r="Y53" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>31.446666666666669</v>
       </c>
       <c r="Z53" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.099999999999998</v>
       </c>
       <c r="AA53" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.873333333333335</v>
       </c>
       <c r="AB53" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.99</v>
       </c>
       <c r="AC53" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.396666666666665</v>
       </c>
       <c r="AD53" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25.679999999999996</v>
       </c>
       <c r="AE53" s="403"/>
@@ -16354,55 +17004,55 @@
         <v>4</v>
       </c>
       <c r="R54" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.986666666666668</v>
       </c>
       <c r="S54" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.14</v>
       </c>
       <c r="T54" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12.660000000000002</v>
       </c>
       <c r="U54" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V54" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30.096666666666664</v>
       </c>
       <c r="W54" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19.456666666666667</v>
       </c>
       <c r="X54" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>33.636666666666663</v>
       </c>
       <c r="Y54" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>35.963333333333331</v>
       </c>
       <c r="Z54" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.290000000000003</v>
       </c>
       <c r="AA54" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30.486666666666668</v>
       </c>
       <c r="AB54" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30.173333333333336</v>
       </c>
       <c r="AC54" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30.026666666666671</v>
       </c>
       <c r="AD54" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13.373333333333333</v>
       </c>
       <c r="AE54" s="403"/>
@@ -16470,55 +17120,55 @@
         <v>5</v>
       </c>
       <c r="R55" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>27.923333333333332</v>
       </c>
       <c r="S55" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.130000000000001</v>
       </c>
       <c r="T55" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.423333333333336</v>
       </c>
       <c r="U55" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30.096666666666664</v>
       </c>
       <c r="V55" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W55" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.040000000000003</v>
       </c>
       <c r="X55" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.173333333333332</v>
       </c>
       <c r="Y55" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15.903333333333331</v>
       </c>
       <c r="Z55" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19.723333333333333</v>
       </c>
       <c r="AA55" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.220000000000002</v>
       </c>
       <c r="AB55" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15.936666666666667</v>
       </c>
       <c r="AC55" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.983333333333334</v>
       </c>
       <c r="AD55" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>33.613333333333337</v>
       </c>
       <c r="AE55" s="403"/>
@@ -16586,55 +17236,55 @@
         <v>6</v>
       </c>
       <c r="R56" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25.033333333333331</v>
       </c>
       <c r="S56" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.88</v>
       </c>
       <c r="T56" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.5366666666666671</v>
       </c>
       <c r="U56" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19.456666666666667</v>
       </c>
       <c r="V56" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.040000000000003</v>
       </c>
       <c r="W56" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X56" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.503333333333334</v>
       </c>
       <c r="Y56" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.443333333333332</v>
       </c>
       <c r="Z56" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.786666666666665</v>
       </c>
       <c r="AA56" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.766666666666666</v>
       </c>
       <c r="AB56" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.343333333333334</v>
       </c>
       <c r="AC56" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.680000000000003</v>
       </c>
       <c r="AD56" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>32.773333333333333</v>
       </c>
       <c r="AE56" s="403"/>
@@ -16702,55 +17352,55 @@
         <v>7</v>
       </c>
       <c r="R57" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>28.406666666666666</v>
       </c>
       <c r="S57" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.493333333333336</v>
       </c>
       <c r="T57" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>28.840000000000003</v>
       </c>
       <c r="U57" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>33.636666666666663</v>
       </c>
       <c r="V57" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.173333333333332</v>
       </c>
       <c r="W57" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.503333333333334</v>
       </c>
       <c r="X57" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y57" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15.12</v>
       </c>
       <c r="Z57" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>32.703333333333326</v>
       </c>
       <c r="AA57" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.9533333333333331</v>
       </c>
       <c r="AB57" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.939999999999998</v>
       </c>
       <c r="AC57" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25.116666666666664</v>
       </c>
       <c r="AD57" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>42.983333333333327</v>
       </c>
       <c r="AE57" s="403"/>
@@ -16818,55 +17468,55 @@
         <v>8</v>
       </c>
       <c r="R58" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>36.520000000000003</v>
       </c>
       <c r="S58" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.53</v>
       </c>
       <c r="T58" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>31.446666666666669</v>
       </c>
       <c r="U58" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>35.963333333333331</v>
       </c>
       <c r="V58" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15.903333333333331</v>
       </c>
       <c r="W58" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.443333333333332</v>
       </c>
       <c r="X58" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15.12</v>
       </c>
       <c r="Y58" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z58" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.693333333333332</v>
       </c>
       <c r="AA58" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.996666666666666</v>
       </c>
       <c r="AB58" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15.459999999999999</v>
       </c>
       <c r="AC58" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17.776666666666667</v>
       </c>
       <c r="AD58" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45.699999999999996</v>
       </c>
       <c r="AE58" s="403"/>
@@ -16934,55 +17584,55 @@
         <v>9</v>
       </c>
       <c r="R59" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.053333333333331</v>
       </c>
       <c r="S59" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.433333333333334</v>
       </c>
       <c r="T59" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.099999999999998</v>
       </c>
       <c r="U59" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.290000000000003</v>
       </c>
       <c r="V59" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19.723333333333333</v>
       </c>
       <c r="W59" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.786666666666665</v>
       </c>
       <c r="X59" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>32.703333333333326</v>
       </c>
       <c r="Y59" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.693333333333332</v>
       </c>
       <c r="Z59" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA59" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>34.056666666666672</v>
       </c>
       <c r="AB59" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.633333333333336</v>
       </c>
       <c r="AC59" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.263333333333332</v>
       </c>
       <c r="AD59" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21.366666666666664</v>
       </c>
       <c r="AE59" s="403"/>
@@ -17050,55 +17700,55 @@
         <v>10</v>
       </c>
       <c r="R60" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.803333333333331</v>
       </c>
       <c r="S60" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.826666666666668</v>
       </c>
       <c r="T60" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.873333333333335</v>
       </c>
       <c r="U60" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30.486666666666668</v>
       </c>
       <c r="V60" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.220000000000002</v>
       </c>
       <c r="W60" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.766666666666666</v>
       </c>
       <c r="X60" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.9533333333333331</v>
       </c>
       <c r="Y60" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.996666666666666</v>
       </c>
       <c r="Z60" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>34.056666666666672</v>
       </c>
       <c r="AA60" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB60" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.45</v>
       </c>
       <c r="AC60" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.573333333333334</v>
       </c>
       <c r="AD60" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>42.403333333333336</v>
       </c>
       <c r="AE60" s="403"/>
@@ -17166,55 +17816,55 @@
         <v>11</v>
       </c>
       <c r="R61" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>31.936666666666667</v>
       </c>
       <c r="S61" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.733333333333331</v>
       </c>
       <c r="T61" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.99</v>
       </c>
       <c r="U61" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30.173333333333336</v>
       </c>
       <c r="V61" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15.936666666666667</v>
       </c>
       <c r="W61" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.343333333333334</v>
       </c>
       <c r="X61" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.939999999999998</v>
       </c>
       <c r="Y61" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15.459999999999999</v>
       </c>
       <c r="Z61" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.633333333333336</v>
       </c>
       <c r="AA61" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.45</v>
       </c>
       <c r="AB61" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC61" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.07</v>
       </c>
       <c r="AD61" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.25</v>
       </c>
       <c r="AE61" s="403"/>
@@ -17282,55 +17932,55 @@
         <v>12</v>
       </c>
       <c r="R62" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>33.979999999999997</v>
       </c>
       <c r="S62" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25.603333333333335</v>
       </c>
       <c r="T62" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.396666666666665</v>
       </c>
       <c r="U62" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30.026666666666671</v>
       </c>
       <c r="V62" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.983333333333334</v>
       </c>
       <c r="W62" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.680000000000003</v>
       </c>
       <c r="X62" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25.116666666666664</v>
       </c>
       <c r="Y62" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17.776666666666667</v>
       </c>
       <c r="Z62" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.263333333333332</v>
       </c>
       <c r="AA62" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.573333333333334</v>
       </c>
       <c r="AB62" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.07</v>
       </c>
       <c r="AC62" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD62" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.196666666666665</v>
       </c>
       <c r="AE62" s="403"/>
@@ -17398,55 +18048,55 @@
         <v>13</v>
       </c>
       <c r="R63" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19.13</v>
       </c>
       <c r="S63" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>27.973333333333329</v>
       </c>
       <c r="T63" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25.679999999999996</v>
       </c>
       <c r="U63" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13.373333333333333</v>
       </c>
       <c r="V63" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>33.613333333333337</v>
       </c>
       <c r="W63" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>32.773333333333333</v>
       </c>
       <c r="X63" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>42.983333333333327</v>
       </c>
       <c r="Y63" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45.699999999999996</v>
       </c>
       <c r="Z63" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21.366666666666664</v>
       </c>
       <c r="AA63" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>42.403333333333336</v>
       </c>
       <c r="AB63" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.25</v>
       </c>
       <c r="AC63" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37.196666666666665</v>
       </c>
       <c r="AD63" s="403">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE63" s="403"/>
@@ -17711,55 +18361,55 @@
         <v>1</v>
       </c>
       <c r="R67" s="403">
-        <f t="shared" ref="R67:AD79" si="4">STDEV(B67,B51,B83)</f>
+        <f t="shared" ref="R67:AD79" si="8">STDEV(B67,B51,B83)</f>
         <v>0</v>
       </c>
       <c r="S67" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.9618900806148147</v>
       </c>
       <c r="T67" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.3233106394030578</v>
       </c>
       <c r="U67" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.3548170156254224</v>
       </c>
       <c r="V67" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6676488006822705</v>
       </c>
       <c r="W67" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.6840115391202772</v>
       </c>
       <c r="X67" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17.105935617011227</v>
       </c>
       <c r="Y67" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17.705448314007747</v>
       </c>
       <c r="Z67" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.9611624989915946</v>
       </c>
       <c r="AA67" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.6839641485518158</v>
       </c>
       <c r="AB67" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13.264645993517254</v>
       </c>
       <c r="AC67" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.223974340669171</v>
       </c>
       <c r="AD67" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.3831158733965356</v>
       </c>
       <c r="AE67" s="403"/>
@@ -17829,60 +18479,60 @@
         <v>2</v>
       </c>
       <c r="R68" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.9618900806148147</v>
       </c>
       <c r="S68" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T68" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.5892626769317779</v>
       </c>
       <c r="U68" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.8538977059841706</v>
       </c>
       <c r="V68" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.1396824022094165</v>
       </c>
       <c r="W68" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.627572629721238</v>
       </c>
       <c r="X68" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.5037079722849835</v>
       </c>
       <c r="Y68" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.7243512698252088</v>
       </c>
       <c r="Z68" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.7725204564721198</v>
       </c>
       <c r="AA68" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.2931099889747095</v>
       </c>
       <c r="AB68" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.2935338980067987</v>
       </c>
       <c r="AC68" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.950315198074618</v>
       </c>
       <c r="AD68" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13.311083101435949</v>
       </c>
       <c r="AE68" s="403"/>
       <c r="AF68" s="403">
-        <f t="shared" ref="AF68:AF78" si="5">AF67+2</f>
+        <f t="shared" ref="AF68:AF78" si="9">AF67+2</f>
         <v>2</v>
       </c>
       <c r="AG68" s="405"/>
@@ -17948,60 +18598,60 @@
         <v>3</v>
       </c>
       <c r="R69" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.3233106394030578</v>
       </c>
       <c r="S69" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.5892626769317779</v>
       </c>
       <c r="T69" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U69" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.2101400718867144</v>
       </c>
       <c r="V69" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.4190647577664262</v>
       </c>
       <c r="W69" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.6566547363244926</v>
       </c>
       <c r="X69" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.761586891919043</v>
       </c>
       <c r="Y69" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14.967405698160698</v>
       </c>
       <c r="Z69" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.4910482273980747</v>
       </c>
       <c r="AA69" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14.133397798595118</v>
       </c>
       <c r="AB69" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.7782838724232759</v>
       </c>
       <c r="AC69" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.231150123080555</v>
       </c>
       <c r="AD69" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.9917017299285629</v>
       </c>
       <c r="AE69" s="403"/>
       <c r="AF69" s="403">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AG69" s="405"/>
@@ -18067,60 +18717,60 @@
         <v>4</v>
       </c>
       <c r="R70" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.3548170156254224</v>
       </c>
       <c r="S70" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.8538977059841706</v>
       </c>
       <c r="T70" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.2101400718867144</v>
       </c>
       <c r="U70" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V70" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.028441221512608</v>
       </c>
       <c r="W70" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.160050852891107</v>
       </c>
       <c r="X70" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>16.006031154953224</v>
       </c>
       <c r="Y70" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>21.966575366527518</v>
       </c>
       <c r="Z70" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.14279547264954</v>
       </c>
       <c r="AA70" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14.295958636388578</v>
       </c>
       <c r="AB70" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.410416323932617</v>
       </c>
       <c r="AC70" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15.154142447968903</v>
       </c>
       <c r="AD70" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.743934723058095</v>
       </c>
       <c r="AE70" s="403"/>
       <c r="AF70" s="403">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="AG70" s="405"/>
@@ -18186,60 +18836,60 @@
         <v>5</v>
       </c>
       <c r="R71" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6676488006822705</v>
       </c>
       <c r="S71" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.1396824022094165</v>
       </c>
       <c r="T71" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.4190647577664262</v>
       </c>
       <c r="U71" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.028441221512608</v>
       </c>
       <c r="V71" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W71" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.5782781685551681</v>
       </c>
       <c r="X71" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13.605625062206201</v>
       </c>
       <c r="Y71" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.1217356283537807</v>
       </c>
       <c r="Z71" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.610001321702281</v>
       </c>
       <c r="AA71" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14.333670151081334</v>
       </c>
       <c r="AB71" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.7302226764516195</v>
       </c>
       <c r="AC71" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17.362074568821935</v>
       </c>
       <c r="AD71" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15.079609853485371</v>
       </c>
       <c r="AE71" s="403"/>
       <c r="AF71" s="403">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="AG71" s="405"/>
@@ -18305,60 +18955,60 @@
         <v>6</v>
       </c>
       <c r="R72" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.6840115391202772</v>
       </c>
       <c r="S72" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.627572629721238</v>
       </c>
       <c r="T72" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.6566547363244926</v>
       </c>
       <c r="U72" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.160050852891107</v>
       </c>
       <c r="V72" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.5782781685551681</v>
       </c>
       <c r="W72" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X72" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.2610296837532919</v>
       </c>
       <c r="Y72" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.043108748456987</v>
       </c>
       <c r="Z72" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.72280816848978</v>
       </c>
       <c r="AA72" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.085798596706825</v>
       </c>
       <c r="AB72" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.9015239862897912</v>
       </c>
       <c r="AC72" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.4481071420865028</v>
       </c>
       <c r="AD72" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.5881099945978976</v>
       </c>
       <c r="AE72" s="403"/>
       <c r="AF72" s="403">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="AG72" s="405"/>
@@ -18424,60 +19074,60 @@
         <v>7</v>
       </c>
       <c r="R73" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17.105935617011227</v>
       </c>
       <c r="S73" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.5037079722849835</v>
       </c>
       <c r="T73" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.761586891919043</v>
       </c>
       <c r="U73" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>16.006031154953224</v>
       </c>
       <c r="V73" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13.605625062206201</v>
       </c>
       <c r="W73" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.2610296837532919</v>
       </c>
       <c r="X73" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y73" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.132443577220595</v>
       </c>
       <c r="Z73" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.0407290792396044</v>
       </c>
       <c r="AA73" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.6752121839921834</v>
       </c>
       <c r="AB73" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.7824184477220246</v>
       </c>
       <c r="AC73" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.361328137920026</v>
       </c>
       <c r="AD73" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.061328008695122</v>
       </c>
       <c r="AE73" s="403"/>
       <c r="AF73" s="403">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="AG73" s="405"/>
@@ -18543,60 +19193,60 @@
         <v>8</v>
       </c>
       <c r="R74" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17.705448314007747</v>
       </c>
       <c r="S74" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.7243512698252088</v>
       </c>
       <c r="T74" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14.967405698160698</v>
       </c>
       <c r="U74" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>21.966575366527518</v>
       </c>
       <c r="V74" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.1217356283537807</v>
       </c>
       <c r="W74" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.043108748456987</v>
       </c>
       <c r="X74" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.132443577220595</v>
       </c>
       <c r="Y74" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z74" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.015250038482977</v>
       </c>
       <c r="AA74" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.4750063913446976</v>
       </c>
       <c r="AB74" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.3850581393333243</v>
       </c>
       <c r="AC74" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.888693508259578</v>
       </c>
       <c r="AD74" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17.701375652756475</v>
       </c>
       <c r="AE74" s="403"/>
       <c r="AF74" s="403">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="AG74" s="405"/>
@@ -18662,60 +19312,60 @@
         <v>9</v>
       </c>
       <c r="R75" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.9611624989915946</v>
       </c>
       <c r="S75" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.7725204564721198</v>
       </c>
       <c r="T75" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.4910482273980747</v>
       </c>
       <c r="U75" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.14279547264954</v>
       </c>
       <c r="V75" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.610001321702281</v>
       </c>
       <c r="W75" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.72280816848978</v>
       </c>
       <c r="X75" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.0407290792396044</v>
       </c>
       <c r="Y75" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.015250038482977</v>
       </c>
       <c r="Z75" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA75" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.487586582265914</v>
       </c>
       <c r="AB75" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.09099802883671</v>
       </c>
       <c r="AC75" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.327423949571838</v>
       </c>
       <c r="AD75" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.377872293169412</v>
       </c>
       <c r="AE75" s="403"/>
       <c r="AF75" s="403">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="AG75" s="405"/>
@@ -18781,60 +19431,60 @@
         <v>10</v>
       </c>
       <c r="R76" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.6839641485518158</v>
       </c>
       <c r="S76" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.2931099889747095</v>
       </c>
       <c r="T76" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14.133397798595118</v>
       </c>
       <c r="U76" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14.295958636388578</v>
       </c>
       <c r="V76" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14.333670151081334</v>
       </c>
       <c r="W76" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.085798596706825</v>
       </c>
       <c r="X76" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.6752121839921834</v>
       </c>
       <c r="Y76" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.4750063913446976</v>
       </c>
       <c r="Z76" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.487586582265914</v>
       </c>
       <c r="AA76" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB76" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.231876389172676</v>
       </c>
       <c r="AC76" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15.225079091201254</v>
       </c>
       <c r="AD76" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.3950563790690191</v>
       </c>
       <c r="AE76" s="403"/>
       <c r="AF76" s="403">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="AG76" s="405"/>
@@ -18900,60 +19550,60 @@
         <v>11</v>
       </c>
       <c r="R77" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13.264645993517254</v>
       </c>
       <c r="S77" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.2935338980067987</v>
       </c>
       <c r="T77" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.7782838724232759</v>
       </c>
       <c r="U77" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.410416323932617</v>
       </c>
       <c r="V77" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.7302226764516195</v>
       </c>
       <c r="W77" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.9015239862897912</v>
       </c>
       <c r="X77" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.7824184477220246</v>
       </c>
       <c r="Y77" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.3850581393333243</v>
       </c>
       <c r="Z77" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.09099802883671</v>
       </c>
       <c r="AA77" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.231876389172676</v>
       </c>
       <c r="AB77" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC77" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.6006338926946455</v>
       </c>
       <c r="AD77" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.634350003067036</v>
       </c>
       <c r="AE77" s="403"/>
       <c r="AF77" s="403">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="AG77" s="405"/>
@@ -19019,60 +19669,60 @@
         <v>12</v>
       </c>
       <c r="R78" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.223974340669171</v>
       </c>
       <c r="S78" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.950315198074618</v>
       </c>
       <c r="T78" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.231150123080555</v>
       </c>
       <c r="U78" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15.154142447968903</v>
       </c>
       <c r="V78" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17.362074568821935</v>
       </c>
       <c r="W78" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.4481071420865028</v>
       </c>
       <c r="X78" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.361328137920026</v>
       </c>
       <c r="Y78" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.888693508259578</v>
       </c>
       <c r="Z78" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.327423949571838</v>
       </c>
       <c r="AA78" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15.225079091201254</v>
       </c>
       <c r="AB78" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.6006338926946455</v>
       </c>
       <c r="AC78" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD78" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15.010210968981538</v>
       </c>
       <c r="AE78" s="403"/>
       <c r="AF78" s="403">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="AG78" s="405"/>
@@ -19138,55 +19788,55 @@
         <v>13</v>
       </c>
       <c r="R79" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.3831158733965356</v>
       </c>
       <c r="S79" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13.311083101435949</v>
       </c>
       <c r="T79" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.9917017299285629</v>
       </c>
       <c r="U79" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.743934723058095</v>
       </c>
       <c r="V79" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15.079609853485371</v>
       </c>
       <c r="W79" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.5881099945978976</v>
       </c>
       <c r="X79" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.061328008695122</v>
       </c>
       <c r="Y79" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17.701375652756475</v>
       </c>
       <c r="Z79" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.377872293169412</v>
       </c>
       <c r="AA79" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.3950563790690191</v>
       </c>
       <c r="AB79" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.634350003067036</v>
       </c>
       <c r="AC79" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15.010210968981538</v>
       </c>
       <c r="AD79" s="403">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE79" s="403"/>
@@ -62822,6 +63472,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R67:AF79">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AE93">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -62829,6 +63489,16 @@
         <cfvo type="max"/>
         <color rgb="FF57BB8A"/>
         <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG19:AR19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="formula" val="30"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -62842,26 +63512,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R67:AF79">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG19:AR19">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="formula" val="30"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>